--- a/medicine/Enfance/Le_Roman_de_la_momie/Le_Roman_de_la_momie.xlsx
+++ b/medicine/Enfance/Le_Roman_de_la_momie/Le_Roman_de_la_momie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Roman de la momie est un roman de Théophile Gautier paru au printemps 1857 en feuilleton dans Le Moniteur universel, puis en volume en 1858 chez Hachette.
@@ -514,13 +526,53 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Prologue
-Non loin du Nil, dans la vallée de Biban-el-Molouk, un jeune aristocrate anglais, lord Evandale, et un égyptologue allemand, le docteur Rumphius, découvrent, grâce à l'aide d'un escroc grec dénommé Argyropoulos, une tombe inviolée. Depuis plus de 3 500 ans, nul n'a foulé le sol de la chambre funéraire dans laquelle repose le sarcophage d'un pharaon. Mais quand on ouvre le lourd couvercle de basalte noir, les deux hommes trouvent, à leur grande stupéfaction, la momie parfaitement conservée d'une jeune femme d'une magnifique beauté, appelée Tahoser. Après la découverte de cette momie, le roman raconte l'histoire de cette momie et de ses amours.
+          <t>Prologue</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Non loin du Nil, dans la vallée de Biban-el-Molouk, un jeune aristocrate anglais, lord Evandale, et un égyptologue allemand, le docteur Rumphius, découvrent, grâce à l'aide d'un escroc grec dénommé Argyropoulos, une tombe inviolée. Depuis plus de 3 500 ans, nul n'a foulé le sol de la chambre funéraire dans laquelle repose le sarcophage d'un pharaon. Mais quand on ouvre le lourd couvercle de basalte noir, les deux hommes trouvent, à leur grande stupéfaction, la momie parfaitement conservée d'une jeune femme d'une magnifique beauté, appelée Tahoser. Après la découverte de cette momie, le roman raconte l'histoire de cette momie et de ses amours.
 			Lord Evandale et le docteur Rumphius. Composition de George Barbier, gravée sur bois par Gasperini, 1929.
 			Le jeune lord. Composition de George Barbier, 1929.
 			Evandale et Rumphius devant la momie de Tahoser. Composition de Georges-Antoine Rochegrosse gravée à l'eau-forte par Decisy, 1920.
-La vie de Tahoser
-Tahoser, l'héroïne du roman, est la fille d'un grand prêtre d'Égypte, Pétamounoph. Lorsque le récit débute, c'est une adolescente de seize ans, d'une grande beauté. Elle est aimée d'Ahmosis, mais elle ne l'aime pas. En fait, Tahoser est amoureuse d'un homme légèrement plus âgé qu'elle, Poëri. Celui-ci est un juif, qui est promis à Rachel, juive elle aussi. Elle fait la connaissance de Poëri sous le nom de Hora et se fait prendre pour une jeune fille pauvre, en quête d'un asile. Un jour, au crépuscule, elle suit Poëri afin de savoir qui est celle qu'il aime. C'est alors qu'elle fait la rencontre de Rachel.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Le_Roman_de_la_momie</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Le_Roman_de_la_momie</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Résumé</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>La vie de Tahoser</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tahoser, l'héroïne du roman, est la fille d'un grand prêtre d'Égypte, Pétamounoph. Lorsque le récit débute, c'est une adolescente de seize ans, d'une grande beauté. Elle est aimée d'Ahmosis, mais elle ne l'aime pas. En fait, Tahoser est amoureuse d'un homme légèrement plus âgé qu'elle, Poëri. Celui-ci est un juif, qui est promis à Rachel, juive elle aussi. Elle fait la connaissance de Poëri sous le nom de Hora et se fait prendre pour une jeune fille pauvre, en quête d'un asile. Un jour, au crépuscule, elle suit Poëri afin de savoir qui est celle qu'il aime. C'est alors qu'elle fait la rencontre de Rachel.
 Néanmoins, Tahoser ignore qu'elle a été remarquée par Pharaon qui a jeté son dévolu sur elle. Il la fait rechercher dans toute l'Égypte.
 Tahoser est ensuite dénoncée par Thamar, la fidèle suivante de Rachel, qui voit d'un mauvais œil cette non-juive qui risquerait de détourner Poëri de Rachel. Pharaon se rend au domicile de Poëri et ordonne à Tahoser de le suivre. Celle-ci est stupéfaite d'apprendre qu'elle fait l'objet de l'attention de Pharaon, tandis que Thamar est largement rétribuée de sa dénonciation.
 Par la suite, le lecteur apprend que le peuple hébreu est esclave en Égypte, et que sous la houlette de son guide charismatique, Moïse, il cherche à quitter le pays.
@@ -533,31 +585,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Le_Roman_de_la_momie</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Le_Roman_de_la_momie</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Autour du roman</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Le roman est mis en avant dans une scène du film Le Locataire (1976) où le personnage principal, repreneur d'un appartement sinistre qui a vu la précédente locataire se jeter par la fenêtre côté cour, récupère le livre de celle-ci en format poche et annonce être intéressé par sa lecture.
 Le Roman de la momie reste, malgré certains anachronismes ou erreurs, globalement ancré dans le désir d'être fidèle au contexte historique. Par exemple, la description des objets quotidiens ou des vêtements est précise. Le passage sur la moisson, parmi beaucoup d'autres, décrit comment les Égyptiens moissonnaient le blé, c'est-à-dire en coupant l'épi, puis la paille séparément. De même, la description des fouilles est globalement fidèle à la façon dont elles se déroulaient au milieu du XIXe siècle.
@@ -565,35 +619,37 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Le_Roman_de_la_momie</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Le_Roman_de_la_momie</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Le roman a été publié dans de très nombreuses éditions depuis sa parution.
 Prépublication sous forme de feuilleton
-Paris, Le Moniteur universel, du 11 mars au 6 mai 1857[1]
+Paris, Le Moniteur universel, du 11 mars au 6 mai 1857
 Éditions anciennes (liste non exhaustive)
 Paris, Hachette, 1858, (lire en ligne sur Gallica)édition originale
 Paris, Georges Charpentier, 1870
@@ -618,31 +674,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Le_Roman_de_la_momie</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Le_Roman_de_la_momie</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Adaptations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>1911 : Le Roman de la momie d'Albert Capellani
 Le Roman de la momie fut ensuite beaucoup joué en comédie musicale.</t>
